--- a/src/assets/example.xlsx
+++ b/src/assets/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\autoplaning-front\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1328D2AD-F7D2-4784-9B1A-304723C38A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1B146F-9BB2-4480-92FF-7EBBF68F6C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B8ED412-240C-406F-8AC9-C668498A321E}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{5B8ED412-240C-406F-8AC9-C668498A321E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
-  <si>
-    <t>تاریخ</t>
-  </si>
-  <si>
-    <t>نام قطعه</t>
-  </si>
-  <si>
-    <t>کد قطعه</t>
-  </si>
-  <si>
-    <t>نوع خودرو</t>
-  </si>
-  <si>
-    <t>1402/03/01</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>لنت ترمز</t>
   </si>
@@ -51,58 +36,106 @@
     <t>مگان</t>
   </si>
   <si>
-    <t>1402/03/02</t>
-  </si>
-  <si>
     <t>df344</t>
   </si>
   <si>
-    <t>1402/03/03</t>
-  </si>
-  <si>
     <t>df345</t>
   </si>
   <si>
-    <t>1402/03/04</t>
-  </si>
-  <si>
     <t>df346</t>
   </si>
   <si>
-    <t>1402/03/05</t>
-  </si>
-  <si>
     <t>df347</t>
   </si>
   <si>
-    <t>1402/03/06</t>
-  </si>
-  <si>
     <t>df348</t>
   </si>
   <si>
-    <t>1402/03/07</t>
-  </si>
-  <si>
     <t>df349</t>
   </si>
   <si>
-    <t>1402/03/08</t>
-  </si>
-  <si>
     <t>df350</t>
   </si>
   <si>
-    <t>1402/03/09</t>
-  </si>
-  <si>
     <t>df351</t>
   </si>
   <si>
-    <t>1402/03/10</t>
-  </si>
-  <si>
     <t>df352</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>car_type</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>1402-03-01</t>
+  </si>
+  <si>
+    <t>1402-03-02</t>
+  </si>
+  <si>
+    <t>1402-03-03</t>
+  </si>
+  <si>
+    <t>1402-03-04</t>
+  </si>
+  <si>
+    <t>1402-03-05</t>
+  </si>
+  <si>
+    <t>1402-03-06</t>
+  </si>
+  <si>
+    <t>1402-03-07</t>
+  </si>
+  <si>
+    <t>1402-03-08</t>
+  </si>
+  <si>
+    <t>1402-03-09</t>
+  </si>
+  <si>
+    <t>1402-03-10</t>
+  </si>
+  <si>
+    <t>روغن موتور</t>
+  </si>
+  <si>
+    <t>واشر سر سیلندر</t>
+  </si>
+  <si>
+    <t>شمع</t>
+  </si>
+  <si>
+    <t>دیسک</t>
+  </si>
+  <si>
+    <t>دسته موتور</t>
+  </si>
+  <si>
+    <t>تسمه تایم</t>
+  </si>
+  <si>
+    <t>تسمه دینام</t>
+  </si>
+  <si>
+    <t>سیلندر</t>
+  </si>
+  <si>
+    <t>پیستون</t>
+  </si>
+  <si>
+    <t>کاپرا</t>
+  </si>
+  <si>
+    <t>لیفان X60</t>
   </si>
 </sst>
 </file>
@@ -472,7 +505,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.21875" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -482,156 +515,156 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
+      <c r="D5" s="1">
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="D11" s="1">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
